--- a/座位表.xlsx
+++ b/座位表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bfe2116929757dd/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilib\Desktop\NowCoder_Balloon-Release_1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_AD4DA82427541F7ACA7EB849884913986BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B15EAD0F-C8F2-4A3B-B7C2-BECFF3ABD895}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC4D0A7-5A8B-4D15-928E-EB666C401078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="1845" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6750" yWindow="4710" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>三位一体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>301-A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊羊羊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -43,27 +35,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原神启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>301-B1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赤橙黄绿蓝紫</t>
+    <t>牛客UID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>301-B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一路向北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301-C1</t>
+    <t>座位号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,9 +102,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -408,7 +394,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -418,43 +404,38 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="3">
+        <v>296096006</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="3">
+        <v>838042108</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+      <c r="A4" s="3">
+        <v>47202601</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
